--- a/src/main/resources/etax/Etax_VAT.xlsx
+++ b/src/main/resources/etax/Etax_VAT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="19770" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="sto" sheetId="7" r:id="rId1"/>
@@ -205,12 +205,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="34">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -283,6 +283,42 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -299,24 +335,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -327,75 +401,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -409,33 +416,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -446,9 +431,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -502,13 +496,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,19 +574,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,139 +676,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -997,6 +991,21 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1026,6 +1035,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1040,45 +1073,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1101,152 +1095,152 @@
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1313,26 +1307,26 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="8" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="6" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="6" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="8" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="6" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="11" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="12" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1780,7 +1774,7 @@
   <dimension ref="B2:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="D21" sqref="C16:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2082,7 +2076,7 @@
         <v>21</v>
       </c>
       <c r="C17" s="18"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="18"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
@@ -2099,7 +2093,7 @@
         <v>22</v>
       </c>
       <c r="C18" s="18"/>
-      <c r="D18" s="20"/>
+      <c r="D18" s="18"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
@@ -2116,7 +2110,7 @@
         <v>23</v>
       </c>
       <c r="C19" s="18"/>
-      <c r="D19" s="20"/>
+      <c r="D19" s="18"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
@@ -2133,7 +2127,7 @@
         <v>24</v>
       </c>
       <c r="C20" s="18"/>
-      <c r="D20" s="20"/>
+      <c r="D20" s="18"/>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
@@ -2149,14 +2143,14 @@
       <c r="B21" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
       <c r="K21" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2194,35 +2188,35 @@
       <c r="K23" s="14"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="18.75" spans="2:9">
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
       <c r="I24" s="54"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="22.5" spans="2:11">
-      <c r="B25" s="24"/>
-      <c r="C25" s="25" t="s">
+      <c r="B25" s="23"/>
+      <c r="C25" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="F25" s="25" t="s">
+      <c r="F25" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="G25" s="25" t="s">
+      <c r="G25" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="H25" s="25" t="s">
+      <c r="H25" s="24" t="s">
         <v>2</v>
       </c>
       <c r="I25" s="55" t="s">
@@ -2316,7 +2310,7 @@
         <v>37</v>
       </c>
       <c r="C30" s="18"/>
-      <c r="D30" s="20"/>
+      <c r="D30" s="25"/>
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
@@ -2336,9 +2330,9 @@
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
       <c r="H31" s="19"/>
       <c r="I31" s="51">
         <f t="shared" si="1"/>
